--- a/data_processed/20250808/BTCUSDVOLSURFACE_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDVOLSURFACE_20250808.xlsx
@@ -13406,7 +13406,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19278,7 +19278,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19307,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -19336,7 +19336,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43231,7 +43231,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -43260,7 +43260,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43434,7 +43434,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44630,7 +44630,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44659,7 +44659,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -44717,7 +44717,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44746,7 +44746,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44775,7 +44775,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -44804,7 +44804,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250808/BTCUSDVOLSURFACE_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDVOLSURFACE_20250808.xlsx
@@ -748,7 +748,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2627,7 +2627,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7566,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -13406,7 +13406,7 @@
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -13435,7 +13435,7 @@
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -13464,7 +13464,7 @@
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -13609,7 +13609,7 @@
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19191,7 +19191,7 @@
       </c>
       <c r="G702" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19278,7 +19278,7 @@
       </c>
       <c r="G705" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19307,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -19336,7 +19336,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43231,7 +43231,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -43260,7 +43260,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -43434,7 +43434,7 @@
       </c>
       <c r="G1629" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44630,7 +44630,7 @@
       </c>
       <c r="G1673" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44659,7 +44659,7 @@
       </c>
       <c r="G1674" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -44717,7 +44717,7 @@
       </c>
       <c r="G1676" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44746,7 +44746,7 @@
       </c>
       <c r="G1677" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44775,7 +44775,7 @@
       </c>
       <c r="G1678" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
@@ -44804,7 +44804,7 @@
       </c>
       <c r="G1679" t="inlineStr">
         <is>
-          <t>CA,CS</t>
+          <t>CS,CA</t>
         </is>
       </c>
     </row>
